--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3949C-01CF-4067-B55E-6E2E47C51E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA98D71-0D38-4CE3-A098-1FD321F7E588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Keyword</t>
   </si>
@@ -103,9 +103,6 @@
     <t xml:space="preserve"> APPROPRIATION NUMBER PROFILE </t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2023 </t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>dropdown_fiscal_coa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02  </t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0417F25A-CB7B-4BB7-BF6E-139F4FF9C255}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -612,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE1231-2260-4E75-BAC5-1DE9E60B5BB4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,10 +695,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -709,10 +712,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
@@ -730,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA98D71-0D38-4CE3-A098-1FD321F7E588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF5B1C-5A9E-40E4-9198-E44294CD6A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Keyword</t>
   </si>
@@ -124,10 +124,7 @@
     <t>dropdown_fiscal_coa</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> J02  </t>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -733,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>22</v>
